--- a/2020_coleta_tipos_residuos.xlsx
+++ b/2020_coleta_tipos_residuos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\44581098807\Documents\ONG_Limpa_Brasil_EU\DBs_tratados\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\henri\OneDrive - SESISENAISP - Escolas\Área de Trabalho\excel2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD7A5E42-0632-47C2-BA2C-11368AB4C69E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A1E0D52-28E7-49E2-B4AD-BF716548C031}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -526,15 +526,15 @@
   <dimension ref="A1:N34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:N5"/>
+      <selection activeCell="B34" sqref="B34:N34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="48" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -578,7 +578,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -622,7 +622,7 @@
         <v>3619.317</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -666,7 +666,7 @@
         <v>125.43</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -710,7 +710,7 @@
         <v>371.52800000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -754,7 +754,7 @@
         <v>387.52199999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -798,7 +798,7 @@
         <v>213.51599999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -842,7 +842,7 @@
         <v>193.429</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -886,7 +886,7 @@
         <v>256.92700000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -930,7 +930,7 @@
         <v>71.547999999999988</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -974,7 +974,7 @@
         <v>94.464999999999989</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -1018,7 +1018,7 @@
         <v>75.805999999999997</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -1062,7 +1062,7 @@
         <v>24.805</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -1106,7 +1106,7 @@
         <v>64.863</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -1150,7 +1150,7 @@
         <v>36.869</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>27</v>
       </c>
@@ -1194,7 +1194,7 @@
         <v>18.562000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -1238,7 +1238,7 @@
         <v>2759.6840000000002</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>29</v>
       </c>
@@ -1282,7 +1282,7 @@
         <v>8955</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>30</v>
       </c>
@@ -1326,7 +1326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>31</v>
       </c>
@@ -1370,7 +1370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>32</v>
       </c>
@@ -1414,7 +1414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>33</v>
       </c>
@@ -1458,7 +1458,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>34</v>
       </c>
@@ -1502,7 +1502,7 @@
         <v>49.125000000000007</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>35</v>
       </c>
@@ -1546,7 +1546,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>36</v>
       </c>
@@ -1590,7 +1590,7 @@
         <v>5653</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>37</v>
       </c>
@@ -1634,7 +1634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>38</v>
       </c>
@@ -1678,7 +1678,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>39</v>
       </c>
@@ -1722,7 +1722,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>40</v>
       </c>
@@ -1766,7 +1766,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>41</v>
       </c>
@@ -1810,7 +1810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>42</v>
       </c>
@@ -1854,7 +1854,7 @@
         <v>82.212000000000003</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>43</v>
       </c>
@@ -1898,7 +1898,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>44</v>
       </c>
@@ -1942,7 +1942,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>45</v>
       </c>
@@ -1986,7 +1986,7 @@
         <v>457.24400000000003</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>46</v>
       </c>
